--- a/general/Membership Roster.xlsx
+++ b/general/Membership Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jplac\Documents\GitHub\SIT_Records\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C5BCFB-5169-4C44-B126-3709605660A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F87FB-3006-4052-8760-CBE1B1320302}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Date Updated: 12/30/2018</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>rcuthbertson6346@floridapoly.edu</t>
+  </si>
+  <si>
+    <t>Sergeant-at-arms</t>
   </si>
 </sst>
 </file>
@@ -422,6 +425,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -447,7 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,47 +771,51 @@
   <dimension ref="A1:I998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.86328125" customWidth="1"/>
+    <col min="4" max="6" width="6.53125" customWidth="1"/>
+    <col min="7" max="7" width="6.06640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.5">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="23" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -836,13 +843,13 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -851,11 +858,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -864,11 +871,11 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -877,28 +884,36 @@
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -914,99 +929,93 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -3973,11 +3982,12 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C13:C998 C8 C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C8 C6 C10 C13:C22 C24:C998" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>NOT(ISERROR(SEARCH(("@floridapoly.edu"),(C6))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>